--- a/time/Code_Generator.xlsx
+++ b/time/Code_Generator.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TIDL\TIDL\Code_Generator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="10215" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25120" windowHeight="10220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$95:$H$101</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="450">
   <si>
     <t>wishtoUseAPI_1</t>
   </si>
@@ -575,7 +575,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -592,7 +592,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -609,7 +609,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -626,7 +626,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -643,7 +643,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -660,7 +660,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -710,7 +710,7 @@
         <b/>
         <sz val="11"/>
         <color theme="0"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1041,7 +1041,7 @@
         <b/>
         <sz val="11"/>
         <color theme="0"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1451,7 +1451,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1462,7 +1462,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1581,11 +1581,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ERROR readByteArray
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>writeByteArray</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1784,6 +1779,14 @@
   <si>
     <t>onSystemPostReceived</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR readByteArray
+Continue</t>
+  </si>
+  <si>
+    <t>ERROR readByteArrayArray
+Continue</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1797,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1809,7 +1812,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1817,13 +1820,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1831,14 +1834,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1852,7 +1855,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1861,7 +1864,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1869,14 +1872,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1885,7 +1888,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1962,7 +1965,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1815">
+  <cellStyleXfs count="1817">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3525,6 +3528,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3842,1822 +3847,1824 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13"/>
   </cellXfs>
-  <cellStyles count="1815">
-    <cellStyle name="보통" xfId="16" builtinId="28"/>
-    <cellStyle name="셀 확인" xfId="15" builtinId="23"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="566" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="568" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="570" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="572" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="586" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="588" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="590" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="592" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="594" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="596" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="598" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="600" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="602" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="604" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="606" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="608" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="610" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="612" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="614" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="616" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="618" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="620" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="622" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="624" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="626" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="628" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="630" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="632" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="634" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="636" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="638" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="640" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="642" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="644" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="646" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="648" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="650" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="652" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="654" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="656" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="658" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="660" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="662" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="664" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="666" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="668" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="670" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="672" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="674" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="676" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="678" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="680" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="682" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="684" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="686" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="688" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="562" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="564" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="690" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="692" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="694" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="696" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="698" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="700" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="702" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="704" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="706" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="708" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="710" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="712" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="714" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="716" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="718" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="720" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="722" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="724" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="726" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="728" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="730" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="732" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="734" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="736" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="738" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="740" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="742" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="744" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="746" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="748" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="750" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="752" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="754" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="756" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="758" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="760" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="762" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="764" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="766" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="768" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="770" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="772" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="774" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="776" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="778" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="780" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="782" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="784" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="786" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="788" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="790" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="792" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="794" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="796" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="798" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="800" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="802" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="804" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="806" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="808" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="810" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="812" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="814" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="816" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="818" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="820" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="822" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="824" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="826" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="828" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="830" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="832" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="834" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="836" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="838" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="840" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="842" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="844" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="846" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="848" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="850" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="852" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="854" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="856" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="858" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="860" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="862" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="865" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="867" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="869" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="871" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="873" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="875" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="881" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="883" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="885" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="887" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="889" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="891" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="893" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="895" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="897" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="899" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="901" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="903" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="905" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="907" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="909" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="911" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="913" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="915" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="917" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="919" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="921" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="923" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="925" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="927" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="929" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="931" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="933" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="935" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="937" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="939" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="941" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="943" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="945" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="947" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="949" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="951" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="953" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="955" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="957" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="959" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="961" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="963" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="965" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="967" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="969" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="971" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="973" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="975" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="977" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="979" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="981" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="983" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="985" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="987" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="989" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="991" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="993" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="995" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="997" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="999" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1001" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1003" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="877" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="879" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1005" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1007" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1009" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1011" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1017" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1019" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1021" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1023" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1025" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1027" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1029" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1031" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1033" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1035" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1037" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1039" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1041" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1043" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1045" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1047" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1049" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1051" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1053" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1055" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1057" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1059" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1061" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1063" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1065" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1067" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1069" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1071" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1073" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1075" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1077" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1079" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1081" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1083" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1085" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1087" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1089" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1091" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1093" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1095" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1097" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1099" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1101" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1103" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1105" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1107" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1109" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1111" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1113" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1115" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1117" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1119" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1121" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1123" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1125" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1127" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1129" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1131" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1133" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1135" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1137" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1139" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1013" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1015" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1141" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1143" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1145" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1147" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1153" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1155" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1157" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1159" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1161" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1163" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1165" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1167" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1169" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1171" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1173" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1175" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1177" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1179" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1181" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1183" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1185" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1187" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1189" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1191" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1193" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1195" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1197" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1199" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1201" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1203" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1205" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1207" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1209" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1211" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1213" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1215" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1217" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1219" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1221" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1223" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1225" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1227" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1229" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1231" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1233" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1235" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1237" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1239" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1241" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1243" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1245" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1247" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1249" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1251" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1253" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1255" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1257" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1259" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1261" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1263" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1265" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1267" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1269" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1271" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1273" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1275" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1149" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1151" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1277" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1279" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1281" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1283" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1288" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1290" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1292" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1294" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1296" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1298" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1300" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1302" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1304" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1306" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1308" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1310" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1312" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1314" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1316" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1318" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1320" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1322" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1324" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1326" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1328" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1330" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1332" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1334" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1336" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1338" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1340" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1342" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1344" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1346" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1348" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1350" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1352" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1354" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1356" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1358" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1360" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1362" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1364" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1366" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1368" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1370" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1372" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1374" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1376" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1378" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1380" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1382" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1384" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1386" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1388" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1390" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1392" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1394" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1396" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1398" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1400" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1402" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1404" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1406" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1408" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1410" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1284" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1286" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1412" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1414" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1416" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1418" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1423" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1425" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1427" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1429" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1431" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1433" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1435" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1437" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1439" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1441" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1443" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1445" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1447" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1449" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1451" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1453" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1455" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1457" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1459" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1461" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1463" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1465" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1467" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1469" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1471" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1473" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1475" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1477" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1479" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1481" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1483" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1485" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1487" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1489" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1491" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1493" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1495" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1497" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1499" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1501" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1503" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1505" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1507" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1509" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1511" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1513" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1515" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1517" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1519" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1521" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1523" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1525" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1527" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1529" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1531" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1533" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1535" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1537" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1539" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1541" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1543" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1545" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1421" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1547" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1549" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1551" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1553" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1555" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1560" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1562" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1564" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1566" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1568" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1570" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1572" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1574" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1576" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1578" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1580" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1582" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1584" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1586" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1588" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1590" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1592" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1594" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1596" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1598" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1600" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1602" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1604" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1606" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1608" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1610" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1612" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1614" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1616" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1618" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1620" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1622" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1624" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1626" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1628" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1630" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1632" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1634" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1636" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1638" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1640" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1642" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1644" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1646" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1648" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1650" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1652" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1654" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1656" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1658" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1660" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1662" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1664" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1666" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1668" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1670" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1672" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1674" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1676" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1678" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1680" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1682" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1556" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1558" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1684" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1686" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1688" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1690" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1692" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1694" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1696" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1698" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1700" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1702" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1704" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1706" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1708" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1710" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1712" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1714" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1716" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1718" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1720" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1722" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1724" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1726" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1728" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1730" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1732" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1734" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1736" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1738" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1740" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1742" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1744" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1746" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1748" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1750" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1752" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1754" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1756" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1758" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1760" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1762" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1764" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1766" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1768" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1770" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1772" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1774" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1776" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1778" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1780" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1782" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1784" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1786" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1788" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1790" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1792" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1794" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1796" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1798" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1800" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1802" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1804" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1806" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1808" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1810" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1812" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="1814" builtinId="9" hidden="1"/>
-    <cellStyle name="좋음" xfId="14" builtinId="26"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="1817">
+    <cellStyle name="Check Cell" xfId="15" builtinId="23"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="875" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="881" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="889" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="891" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="893" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="895" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="897" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="899" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="901" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="903" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="905" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="907" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="909" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="911" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="913" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="915" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="917" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="919" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="921" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="923" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="925" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="927" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="929" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="931" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="933" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="937" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="939" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="941" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="943" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="945" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="947" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="949" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="951" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="953" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="955" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="957" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="959" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="961" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="963" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="965" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="967" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="969" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="971" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="973" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="975" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="977" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="979" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="981" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="983" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="985" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="987" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="989" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="991" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="993" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="995" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="997" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="999" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1001" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1003" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="879" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1005" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1007" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1009" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1011" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1017" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1019" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1021" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1023" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1025" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1027" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1029" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1031" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1033" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1035" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1037" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1039" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1041" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1043" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1045" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1047" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1049" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1051" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1053" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1055" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1057" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1059" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1061" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1063" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1065" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1067" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1069" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1071" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1073" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1075" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1077" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1079" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1081" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1083" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1085" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1087" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1089" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1091" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1093" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1095" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1097" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1013" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1015" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1816" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="14" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="874" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="880" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="882" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="884" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="886" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="888" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="890" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="892" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="894" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="896" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="898" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="900" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="902" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="904" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="906" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="908" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="910" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="912" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="914" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="916" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="918" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="920" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="922" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="924" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="926" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="928" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="930" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="932" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="934" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="936" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="938" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="940" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="942" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="944" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="946" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="948" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="950" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="952" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="954" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="956" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="958" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="960" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="962" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="964" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="966" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="968" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="970" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="972" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="974" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="976" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="978" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="980" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="982" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="984" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="986" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="988" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="990" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="992" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="994" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="996" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="998" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1000" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1002" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="878" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1004" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1006" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1008" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1010" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1016" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1018" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1020" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1022" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1024" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1026" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1028" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1030" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1032" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1034" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1036" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1038" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1040" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1042" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1044" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1046" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1048" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1050" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1052" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1054" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1056" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1058" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1060" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1062" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1064" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1066" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1068" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1070" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1072" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1074" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1076" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1078" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1080" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1082" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1084" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1086" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1088" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1090" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1092" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1094" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1096" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="876" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1014" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1012" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1815" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="16" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준_Sheet1" xfId="13"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="224" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="226" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="232" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="268" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="270" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="272" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="274" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="276" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="278" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="280" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="282" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="298" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="300" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="302" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="304" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="306" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="308" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="310" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="312" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="314" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="316" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="318" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="320" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="322" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="324" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="326" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="328" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="330" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="332" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="334" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="336" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="338" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="340" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="342" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="344" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="346" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="348" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="350" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="352" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="354" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="356" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="358" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="360" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="362" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="364" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="366" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="368" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="370" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="372" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="374" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="376" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="378" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="380" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="382" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="384" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="386" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="388" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="390" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="392" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="394" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="396" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="398" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="400" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="402" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="404" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="406" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="408" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="410" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="412" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="414" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="416" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="418" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="420" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="422" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="424" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="430" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="432" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="434" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="436" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="438" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="440" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="442" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="444" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="446" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="448" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="450" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="452" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="454" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="456" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="458" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="460" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="462" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="464" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="466" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="468" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="470" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="472" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="474" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="476" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="478" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="480" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="482" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="484" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="486" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="488" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="490" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="492" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="494" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="496" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="498" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="500" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="502" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="504" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="506" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="508" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="510" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="512" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="514" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="516" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="518" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="520" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="522" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="524" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="526" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="528" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="530" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="532" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="534" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="536" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="538" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="540" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="542" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="544" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="546" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="548" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="550" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="552" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="428" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="554" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="556" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="558" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="560" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="565" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="567" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="569" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="571" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="573" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="575" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="577" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="579" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="581" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="583" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="585" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="587" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="589" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="591" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="593" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="595" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="597" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="599" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="601" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="603" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="605" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="607" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="609" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="611" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="613" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="615" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="617" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="619" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="621" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="623" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="625" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="627" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="629" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="631" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="633" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="635" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="637" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="639" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="641" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="643" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="645" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="647" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="649" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="651" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="653" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="655" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="657" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="659" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="661" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="663" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="665" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="667" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="669" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="671" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="673" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="675" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="677" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="679" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="681" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="683" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="685" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="687" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="426" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="563" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="689" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="691" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="693" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="695" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="697" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="699" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="701" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="703" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="705" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="707" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="709" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="711" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="713" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="715" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="717" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="719" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="721" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="723" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="725" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="727" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="729" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="731" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="733" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="735" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="737" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="739" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="741" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="743" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="745" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="747" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="749" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="751" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="753" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="755" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="757" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="759" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="761" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="763" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="765" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="767" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="769" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="771" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="773" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="775" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="777" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="779" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="781" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="783" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="785" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="787" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="789" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="791" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="793" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="795" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="797" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="799" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="801" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="803" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="805" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="807" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="809" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="811" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="813" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="815" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="817" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="819" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="821" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="823" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="825" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="827" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="829" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="831" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="833" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="835" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="837" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="839" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="841" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="843" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="845" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="847" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="849" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="851" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="853" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="855" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="857" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="859" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="861" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="864" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="866" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="868" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="870" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="872" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="874" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="880" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="882" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="884" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="886" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="888" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="890" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="892" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="894" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="896" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="898" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="900" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="902" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="904" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="906" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="908" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="910" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="912" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="914" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="916" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="918" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="920" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="922" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="924" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="926" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="928" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="930" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="932" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="934" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="936" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="938" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="940" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="942" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="944" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="946" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="948" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="950" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="952" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="954" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="956" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="958" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="960" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="962" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="964" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="966" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="968" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="970" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="972" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="974" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="976" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="978" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="980" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="982" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="984" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="986" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="988" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="990" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="992" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="994" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="996" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="998" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1000" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1002" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="863" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="878" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1004" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1006" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1008" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1010" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1016" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1018" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1020" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1022" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1024" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1026" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1028" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1030" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1032" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1034" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1036" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1038" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1040" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1042" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1044" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1046" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1048" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1050" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1052" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1054" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1056" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1058" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1060" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1062" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1064" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1066" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1068" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1070" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1072" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1074" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1076" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1078" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1080" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1082" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1084" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1086" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1088" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1090" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1092" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1094" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1096" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1098" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1100" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1102" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1104" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1106" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1108" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1110" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1112" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1114" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1116" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1118" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1120" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1122" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1124" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1126" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1128" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1130" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1132" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1134" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1136" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1138" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="876" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1014" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1140" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1142" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1144" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1146" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1152" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1154" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1156" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1158" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1160" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1162" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1164" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1166" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1168" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1170" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1172" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1174" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1176" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1178" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1180" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1182" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1184" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1186" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1188" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1190" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1192" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1194" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1196" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1198" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1200" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1202" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1204" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1206" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1208" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1210" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1212" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1214" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1216" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1218" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1220" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1222" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1224" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1226" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1228" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1230" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1232" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1234" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1236" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1238" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1240" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1242" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1244" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1246" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1248" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1250" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1252" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1254" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1256" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1258" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1260" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1262" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1264" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1266" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1268" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1270" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1272" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1274" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1012" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1150" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1276" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1278" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1280" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1282" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1287" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1289" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1291" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1293" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1295" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1297" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1299" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1301" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1303" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1305" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1307" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1309" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1311" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1313" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1315" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1317" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1319" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1321" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1323" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1325" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1327" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1329" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1331" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1333" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1335" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1337" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1339" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1341" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1343" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1345" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1347" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1349" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1351" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1353" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1355" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1357" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1359" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1361" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1363" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1365" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1367" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1369" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1371" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1373" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1375" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1377" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1379" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1381" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1383" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1385" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1387" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1389" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1391" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1393" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1395" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1397" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1399" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1401" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1403" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1405" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1407" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1409" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1148" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1285" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1411" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1413" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1415" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1417" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1422" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1424" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1426" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1428" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1430" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1432" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1434" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1436" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1438" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1440" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1442" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1444" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1446" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1448" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1450" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1452" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1454" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1456" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1458" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1460" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1462" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1464" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1466" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1468" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1470" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1472" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1474" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1476" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1478" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1480" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1482" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1484" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1486" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1488" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1490" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1492" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1494" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1496" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1498" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1500" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1502" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1504" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1506" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1508" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1510" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1512" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1514" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1516" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1518" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1520" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1522" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1524" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1526" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1528" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1530" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1532" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1534" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1536" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1538" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1540" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1542" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1544" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1420" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1546" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1548" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1550" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1552" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1554" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1559" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1561" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1563" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1565" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1567" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1569" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1571" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1573" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1575" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1577" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1579" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1581" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1583" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1585" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1587" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1589" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1591" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1593" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1595" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1597" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1599" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1601" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1603" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1605" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1607" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1609" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1611" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1613" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1615" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1617" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1619" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1621" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1623" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1625" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1627" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1629" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1631" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1633" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1635" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1637" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1639" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1641" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1643" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1645" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1647" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1649" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1651" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1653" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1655" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1657" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1659" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1661" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1663" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1665" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1667" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1669" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1671" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1673" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1675" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1677" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1679" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1681" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1419" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1557" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1683" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1685" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1687" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1689" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1691" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1693" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1695" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1697" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1699" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1701" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1703" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1705" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1707" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1709" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1711" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1713" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1715" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1717" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1719" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1721" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1723" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1725" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1727" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1729" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1731" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1733" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1735" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1737" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1739" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1741" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1743" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1745" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1747" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1749" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1751" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1753" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1755" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1757" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1759" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1761" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1763" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1765" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1767" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1769" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1771" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1773" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1775" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1777" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1779" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1781" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1783" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1785" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1787" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1789" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1791" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1793" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1795" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1797" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1799" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1801" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1803" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1805" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1807" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1809" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1811" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="1813" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -6737,57 +6744,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H23" sqref="H23"/>
+      <selection pane="topRight" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="43.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="14">
       <c r="A1" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="5" customFormat="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="16" thickTop="1" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16" thickTop="1">
       <c r="A4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="14">
       <c r="A7" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="5" customFormat="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="16" thickTop="1" thickBot="1">
       <c r="A9" s="8" t="s">
         <v>152</v>
       </c>
@@ -6795,7 +6802,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A10" s="8" t="s">
         <v>133</v>
       </c>
@@ -6803,32 +6810,32 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A11" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" t="s">
         <v>429</v>
       </c>
-      <c r="D11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A12" s="8" t="s">
         <v>223</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D12" t="s">
         <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A13" s="8" t="s">
         <v>267</v>
       </c>
@@ -6839,19 +6846,19 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="B14" s="16"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17" thickTop="1" thickBot="1">
       <c r="A15" s="8" t="s">
         <v>276</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="16" thickTop="1" thickBot="1">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -6859,9 +6866,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16" thickTop="1">
       <c r="A17" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
         <v>153</v>
@@ -6870,19 +6877,19 @@
       <c r="F17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="F18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="5" customFormat="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>130</v>
       </c>
@@ -6896,7 +6903,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="5" customFormat="1" ht="16" thickTop="1" thickBot="1">
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
@@ -6928,10 +6935,10 @@
         <v>211</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16" thickTop="1">
       <c r="A23" s="1" t="s">
         <v>154</v>
       </c>
@@ -6964,7 +6971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>168</v>
       </c>
@@ -6992,7 +6999,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>169</v>
       </c>
@@ -7025,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>170</v>
       </c>
@@ -7058,7 +7065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
@@ -7083,7 +7090,7 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>171</v>
       </c>
@@ -7113,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>155</v>
       </c>
@@ -7143,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>156</v>
       </c>
@@ -7173,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>157</v>
       </c>
@@ -7206,7 +7213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>157</v>
       </c>
@@ -7231,7 +7238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>157</v>
       </c>
@@ -7259,7 +7266,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>157</v>
       </c>
@@ -7287,7 +7294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>173</v>
       </c>
@@ -7311,7 +7318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="32" customFormat="1">
       <c r="A36" s="20" t="s">
         <v>286</v>
       </c>
@@ -7344,10 +7351,10 @@
         <v>3</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="32" customFormat="1">
       <c r="A37" s="20" t="s">
         <v>286</v>
       </c>
@@ -7373,10 +7380,10 @@
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="K37" s="20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="32" customFormat="1">
       <c r="A38" s="20" t="s">
         <v>320</v>
       </c>
@@ -7387,7 +7394,7 @@
         <v>279</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="22" t="str">
@@ -7395,7 +7402,7 @@
         <v/>
       </c>
       <c r="G38" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H38" s="27" t="s">
         <v>280</v>
@@ -7407,10 +7414,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="32" customFormat="1">
       <c r="A39" s="20" t="s">
         <v>287</v>
       </c>
@@ -7446,7 +7453,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="32" customFormat="1">
       <c r="A40" s="20" t="s">
         <v>287</v>
       </c>
@@ -7457,7 +7464,7 @@
         <v>294</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E40" s="21">
         <v>0</v>
@@ -7474,7 +7481,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="32" customFormat="1">
       <c r="A41" s="20" t="s">
         <v>287</v>
       </c>
@@ -7485,19 +7492,19 @@
         <v>344</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="22"/>
       <c r="G41" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H41" s="27"/>
       <c r="K41" s="20" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="32" customFormat="1">
       <c r="A42" s="20" t="s">
         <v>321</v>
       </c>
@@ -7517,29 +7524,29 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="32" customFormat="1">
       <c r="A43" s="33"/>
       <c r="F43" s="28"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
     </row>
-    <row r="44" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="32" customFormat="1">
       <c r="A44" s="33"/>
       <c r="F44" s="28"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" s="5" customFormat="1" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" s="5" customFormat="1" ht="16" thickTop="1" thickBot="1">
       <c r="A47" s="8" t="s">
         <v>16</v>
       </c>
@@ -7574,12 +7581,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="16" thickTop="1">
       <c r="A48" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>9</v>
@@ -7603,7 +7610,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="5" t="s">
         <v>217</v>
       </c>
@@ -7632,7 +7639,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" s="5" t="s">
         <v>7</v>
       </c>
@@ -7664,7 +7671,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="5" t="s">
         <v>5</v>
       </c>
@@ -7699,7 +7706,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
@@ -7728,12 +7735,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>90</v>
@@ -7757,12 +7764,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -7770,12 +7777,12 @@
       <c r="F54" s="5"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="5" t="s">
         <v>355</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -7783,20 +7790,20 @@
       <c r="F55" s="5"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" s="5" customFormat="1" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" s="5" customFormat="1" ht="16" thickTop="1" thickBot="1">
       <c r="A60" s="8" t="s">
         <v>15</v>
       </c>
@@ -7804,7 +7811,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="16" thickTop="1">
       <c r="A61" s="1" t="s">
         <v>158</v>
       </c>
@@ -7812,7 +7819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>159</v>
       </c>
@@ -7820,7 +7827,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>160</v>
       </c>
@@ -7828,50 +7835,50 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="16" thickBot="1">
       <c r="A72" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A73" s="8" t="s">
         <v>224</v>
       </c>
@@ -7881,7 +7888,7 @@
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="16" thickTop="1">
       <c r="A74" t="s">
         <v>306</v>
       </c>
@@ -7889,7 +7896,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>304</v>
       </c>
@@ -7897,15 +7904,15 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" s="32" customFormat="1">
       <c r="A76" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>247</v>
       </c>
@@ -7913,7 +7920,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A79" s="8" t="s">
         <v>225</v>
       </c>
@@ -7925,7 +7932,7 @@
       </c>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="16" thickTop="1">
       <c r="A80" t="s">
         <v>311</v>
       </c>
@@ -7933,7 +7940,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>302</v>
       </c>
@@ -7944,10 +7951,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="16" thickBot="1">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="17" thickTop="1" thickBot="1">
       <c r="A83" s="8" t="s">
         <v>309</v>
       </c>
@@ -7965,7 +7972,7 @@
       </c>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="16" thickTop="1">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -7976,7 +7983,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="14">
         <v>2</v>
       </c>
@@ -7984,7 +7991,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -7998,7 +8005,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="14">
         <v>4</v>
       </c>
@@ -8009,8 +8016,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="16" thickBot="1"/>
+    <row r="89" spans="1:9" ht="17" thickTop="1" thickBot="1">
       <c r="A89" s="8" t="s">
         <v>308</v>
       </c>
@@ -8027,7 +8034,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="16" thickTop="1">
       <c r="A90" s="14">
         <v>1</v>
       </c>
@@ -8038,7 +8045,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="14">
         <v>2</v>
       </c>
@@ -8049,19 +8056,19 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" s="32" customFormat="1">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="14"/>
     </row>
-    <row r="94" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="16" thickBot="1">
       <c r="H94" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" s="5" customFormat="1" ht="16" thickTop="1" thickBot="1">
       <c r="A95" s="8" t="s">
         <v>307</v>
       </c>
@@ -8084,13 +8091,13 @@
         <v>174</v>
       </c>
       <c r="H95" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="I95" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="I95" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:9" ht="16" thickTop="1">
       <c r="A96">
         <v>1</v>
       </c>
@@ -8113,10 +8120,10 @@
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>2</v>
       </c>
@@ -8139,7 +8146,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>3</v>
       </c>
@@ -8162,7 +8169,7 @@
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>4</v>
       </c>
@@ -8185,7 +8192,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>5</v>
       </c>
@@ -8205,7 +8212,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>6</v>
       </c>
@@ -8232,13 +8239,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="32" customFormat="1">
       <c r="D102" s="12"/>
       <c r="E102" s="5"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:10" s="32" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" s="32" customFormat="1" ht="16" thickBot="1">
       <c r="D103" s="12"/>
       <c r="E103" s="5"/>
       <c r="G103" s="11"/>
@@ -8246,9 +8253,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="32" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" s="32" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="A104" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>43</v>
@@ -8269,14 +8276,14 @@
         <v>174</v>
       </c>
       <c r="H104" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="I104" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="I104" s="5" t="s">
-        <v>434</v>
-      </c>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10" s="32" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="32" customFormat="1" ht="16" thickTop="1">
       <c r="A105" s="32">
         <v>1</v>
       </c>
@@ -8299,10 +8306,10 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="32" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="32" customFormat="1">
       <c r="A106" s="32">
         <v>2</v>
       </c>
@@ -8325,7 +8332,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="32" customFormat="1">
       <c r="A107" s="32">
         <v>3</v>
       </c>
@@ -8348,7 +8355,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="32" customFormat="1">
       <c r="A108" s="32">
         <v>4</v>
       </c>
@@ -8371,7 +8378,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10">
       <c r="A109" s="32">
         <v>5</v>
       </c>
@@ -8393,7 +8400,7 @@
       <c r="H109" s="11"/>
       <c r="I109" s="32"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10">
       <c r="A110" s="32">
         <v>6</v>
       </c>
@@ -8421,20 +8428,20 @@
       </c>
       <c r="I110" s="32"/>
     </row>
-    <row r="111" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" s="32" customFormat="1">
       <c r="D111" s="12"/>
       <c r="E111" s="5"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="16" thickBot="1">
       <c r="D112" s="12"/>
       <c r="G112" s="11"/>
       <c r="H112" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" ht="17" thickTop="1" thickBot="1">
       <c r="A113" s="8" t="s">
         <v>312</v>
       </c>
@@ -8457,14 +8464,14 @@
         <v>174</v>
       </c>
       <c r="H113" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="I113" s="5" t="s">
-        <v>434</v>
-      </c>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="16" thickTop="1">
       <c r="A114">
         <v>1</v>
       </c>
@@ -8487,10 +8494,10 @@
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" s="32" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>2</v>
       </c>
@@ -8513,7 +8520,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>3</v>
       </c>
@@ -8536,7 +8543,7 @@
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>4</v>
       </c>
@@ -8559,7 +8566,7 @@
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>5</v>
       </c>
@@ -8579,7 +8586,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>6</v>
       </c>
@@ -8606,17 +8613,17 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10">
       <c r="D120" s="12"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10">
       <c r="D121" s="12"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -8624,28 +8631,28 @@
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="125" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" ht="16" thickBot="1"/>
+    <row r="125" spans="1:10" ht="17" thickTop="1" thickBot="1">
       <c r="A125" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="16" thickTop="1">
       <c r="A126" s="20" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="20" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="16" thickBot="1">
       <c r="A129" s="5" t="s">
         <v>130</v>
       </c>
@@ -8666,7 +8673,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="17" thickTop="1" thickBot="1">
       <c r="A130" s="8" t="s">
         <v>318</v>
       </c>
@@ -8704,12 +8711,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="16" thickTop="1">
       <c r="A131" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B131" s="20" t="s">
         <v>447</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>448</v>
       </c>
       <c r="C131" s="21">
         <v>1</v>
@@ -8743,9 +8750,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12">
       <c r="A132" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>286</v>
@@ -8773,9 +8780,9 @@
       <c r="J132" s="27"/>
       <c r="K132" s="32"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12">
       <c r="A133" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B133" s="20" t="s">
         <v>320</v>
@@ -8787,7 +8794,7 @@
         <v>279</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F133" s="21"/>
       <c r="G133" s="22" t="str">
@@ -8795,7 +8802,7 @@
         <v/>
       </c>
       <c r="H133" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I133" s="42" t="s">
         <v>280</v>
@@ -8807,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12">
       <c r="A134" s="20" t="s">
         <v>343</v>
       </c>
@@ -8846,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12">
       <c r="A135" s="20" t="s">
         <v>343</v>
       </c>
@@ -8860,7 +8867,7 @@
         <v>294</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F135" s="21">
         <v>0</v>
@@ -8879,7 +8886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12">
       <c r="A136" s="20" t="s">
         <v>343</v>
       </c>
@@ -8893,18 +8900,18 @@
         <v>344</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F136" s="21"/>
       <c r="G136" s="22"/>
       <c r="H136" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I136" s="42"/>
       <c r="J136" s="32"/>
       <c r="K136" s="32"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12">
       <c r="A137" s="20" t="s">
         <v>343</v>
       </c>
@@ -8929,8 +8936,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="141" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="16" thickBot="1"/>
+    <row r="141" spans="1:12" ht="17" thickTop="1" thickBot="1">
       <c r="A141" s="8" t="s">
         <v>238</v>
       </c>
@@ -8953,7 +8960,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="16" thickTop="1">
       <c r="A142" s="5" t="s">
         <v>75</v>
       </c>
@@ -8972,7 +8979,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12">
       <c r="A143" s="5" t="s">
         <v>59</v>
       </c>
@@ -8991,7 +8998,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12">
       <c r="A144" s="5" t="s">
         <v>77</v>
       </c>
@@ -9010,7 +9017,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145" s="5" t="s">
         <v>78</v>
       </c>
@@ -9029,18 +9036,20 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="56">
       <c r="A146" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B146" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C146" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C146" s="19" t="s">
-        <v>388</v>
-      </c>
       <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
+      <c r="E146" s="7" t="s">
+        <v>449</v>
+      </c>
       <c r="F146" s="19" t="s">
         <v>112</v>
       </c>
@@ -9048,7 +9057,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7">
       <c r="A147" s="5" t="s">
         <v>67</v>
       </c>
@@ -9067,7 +9076,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148" s="5" t="s">
         <v>79</v>
       </c>
@@ -9086,7 +9095,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149" s="5" t="s">
         <v>52</v>
       </c>
@@ -9105,7 +9114,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7">
       <c r="A150" s="5" t="s">
         <v>64</v>
       </c>
@@ -9124,7 +9133,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7">
       <c r="A151" s="5" t="s">
         <v>80</v>
       </c>
@@ -9143,7 +9152,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7">
       <c r="A152" s="5" t="s">
         <v>29</v>
       </c>
@@ -9162,7 +9171,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7">
       <c r="A153" s="5" t="s">
         <v>83</v>
       </c>
@@ -9181,32 +9190,32 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="16" thickBot="1">
       <c r="A160" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" ht="17" thickTop="1" thickBot="1">
       <c r="A161" s="8" t="s">
         <v>289</v>
       </c>
@@ -9217,7 +9226,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="16" thickTop="1">
       <c r="A162" t="s">
         <v>259</v>
       </c>
@@ -9228,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>260</v>
       </c>
@@ -9239,7 +9248,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="16" thickBot="1">
       <c r="A165" s="18" t="s">
         <v>357</v>
       </c>
@@ -9254,41 +9263,41 @@
       <c r="J165" s="18"/>
       <c r="K165" s="18"/>
     </row>
-    <row r="166" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="17" thickTop="1" thickBot="1">
       <c r="A166" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B166" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="168" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="17" thickTop="1" thickBot="1"/>
+    <row r="168" spans="1:11" ht="17" thickTop="1" thickBot="1">
       <c r="A168" s="8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="16" thickTop="1">
       <c r="A169" s="31" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="31" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="16" thickBot="1">
       <c r="A172" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="17" thickTop="1" thickBot="1">
       <c r="A173" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="B173" s="32" t="s">
         <v>414</v>
-      </c>
-      <c r="B173" s="32" t="s">
-        <v>415</v>
       </c>
       <c r="C173" s="32" t="s">
         <v>233</v>
@@ -9300,7 +9309,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="16" thickTop="1">
       <c r="A174" s="33">
         <v>1</v>
       </c>
@@ -9309,13 +9318,13 @@
       </c>
       <c r="C174" s="32"/>
       <c r="D174" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E174" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11">
       <c r="A175" s="36">
         <v>2</v>
       </c>
@@ -9328,7 +9337,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11">
       <c r="A176" s="33">
         <v>3</v>
       </c>
@@ -9339,13 +9348,13 @@
         <v>10</v>
       </c>
       <c r="D176" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E176" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13">
       <c r="A177" s="36">
         <v>4</v>
       </c>
@@ -9354,24 +9363,24 @@
       </c>
       <c r="C177" s="32"/>
       <c r="D177" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E177" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="16" thickBot="1">
       <c r="A178" s="32"/>
       <c r="B178" s="32"/>
       <c r="C178" s="32"/>
       <c r="D178" s="32"/>
     </row>
-    <row r="179" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="17" thickTop="1" thickBot="1">
       <c r="A179" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B179" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C179" s="32" t="s">
         <v>233</v>
@@ -9383,22 +9392,22 @@
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="16" thickTop="1">
       <c r="A180" s="36">
         <v>1</v>
       </c>
       <c r="B180" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C180" s="35" t="s">
         <v>420</v>
-      </c>
-      <c r="C180" s="35" t="s">
-        <v>421</v>
       </c>
       <c r="D180" s="32"/>
       <c r="E180" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13">
       <c r="A181" s="36">
         <v>2</v>
       </c>
@@ -9407,14 +9416,14 @@
       </c>
       <c r="C181" s="32"/>
       <c r="D181" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E181" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="183" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="16" thickBot="1"/>
+    <row r="183" spans="1:13" ht="17" thickTop="1" thickBot="1">
       <c r="A183" s="8" t="s">
         <v>346</v>
       </c>
@@ -9422,23 +9431,23 @@
         <v>262</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="16" thickTop="1">
       <c r="A184" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B184" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13">
       <c r="A185" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B185" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="16" thickBot="1">
       <c r="A187" s="5" t="s">
         <v>130</v>
       </c>
@@ -9459,7 +9468,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="17" thickTop="1" thickBot="1">
       <c r="A188" s="8" t="s">
         <v>347</v>
       </c>
@@ -9500,12 +9509,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="18.75" customHeight="1" thickTop="1">
       <c r="A189" s="26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C189" s="25">
         <v>1</v>
@@ -9514,22 +9523,22 @@
         <v>342</v>
       </c>
       <c r="E189" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F189" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="F189" s="26" t="s">
+      <c r="G189" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="G189" s="28" t="s">
+      <c r="H189" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="H189" s="27" t="s">
+      <c r="I189" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="I189" s="27" t="s">
-        <v>397</v>
-      </c>
       <c r="J189" s="38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K189" s="25">
         <v>3</v>
@@ -9541,66 +9550,66 @@
         <v>349</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="18.75" customHeight="1">
       <c r="A190" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="B190" s="26" t="s">
         <v>391</v>
-      </c>
-      <c r="B190" s="26" t="s">
-        <v>392</v>
       </c>
       <c r="C190" s="25">
         <v>2</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E190" s="25" t="s">
         <v>127</v>
       </c>
       <c r="F190" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="G190" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="G190" s="28" t="s">
-        <v>400</v>
-      </c>
       <c r="H190" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I190" s="27"/>
       <c r="J190" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K190" s="25"/>
       <c r="L190" s="25"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13">
       <c r="A191" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C191" s="25">
         <v>1</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E191" s="25" t="s">
         <v>240</v>
       </c>
       <c r="F191" s="25"/>
       <c r="G191" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H191" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="I191" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="I191" s="27" t="s">
-        <v>404</v>
-      </c>
       <c r="J191" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K191" s="25">
         <v>1</v>
@@ -9610,36 +9619,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13">
       <c r="A192" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B192" s="26" t="s">
         <v>405</v>
-      </c>
-      <c r="B192" s="26" t="s">
-        <v>406</v>
       </c>
       <c r="C192" s="25">
         <v>1</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E192" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F192" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="G192" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="H192" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F192" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="G192" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="H192" s="27" t="s">
+      <c r="I192" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="I192" s="27" t="s">
-        <v>409</v>
-      </c>
       <c r="J192" s="41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K192" s="25">
         <v>3</v>
@@ -9651,18 +9660,18 @@
         <v>349</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12">
       <c r="A193" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B193" s="26" t="s">
         <v>405</v>
-      </c>
-      <c r="B193" s="26" t="s">
-        <v>406</v>
       </c>
       <c r="C193" s="25">
         <v>2</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E193" s="25" t="s">
         <v>240</v>
@@ -9671,39 +9680,39 @@
         <v>0</v>
       </c>
       <c r="G193" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H193" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I193" s="27"/>
       <c r="J193" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K193" s="25"/>
       <c r="L193" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12">
       <c r="A194" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B194" s="26" t="s">
         <v>405</v>
-      </c>
-      <c r="B194" s="26" t="s">
-        <v>406</v>
       </c>
       <c r="C194" s="25">
         <v>3</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E194" s="37" t="s">
         <v>240</v>
       </c>
       <c r="F194" s="26"/>
       <c r="G194" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H194" s="29" t="s">
         <v>352</v>
@@ -9713,7 +9722,7 @@
       <c r="K194" s="25"/>
       <c r="L194" s="25"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12">
       <c r="A195" s="18" t="s">
         <v>356</v>
       </c>
@@ -9728,7 +9737,7 @@
       <c r="J195" s="18"/>
       <c r="K195" s="18"/>
     </row>
-    <row r="198" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" ht="16" thickBot="1">
       <c r="A198" s="18" t="s">
         <v>358</v>
       </c>
@@ -9743,7 +9752,7 @@
       <c r="J198" s="18"/>
       <c r="K198" s="18"/>
     </row>
-    <row r="199" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" ht="17" thickTop="1" thickBot="1">
       <c r="A199" s="8" t="s">
         <v>360</v>
       </c>
@@ -9751,28 +9760,28 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="201" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" ht="17" thickTop="1" thickBot="1"/>
+    <row r="201" spans="1:12" ht="17" thickTop="1" thickBot="1">
       <c r="A201" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="16" thickTop="1">
       <c r="A202" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" ht="16" thickBot="1">
       <c r="A205" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" ht="17" thickTop="1" thickBot="1">
       <c r="A206" s="8" t="s">
         <v>365</v>
       </c>
@@ -9789,7 +9798,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="16" thickTop="1">
       <c r="A207" s="1">
         <v>1</v>
       </c>
@@ -9803,7 +9812,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12">
       <c r="A208" s="14">
         <v>2</v>
       </c>
@@ -9814,7 +9823,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13">
       <c r="A209" s="1">
         <v>3</v>
       </c>
@@ -9831,7 +9840,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13">
       <c r="A210" s="14">
         <v>4</v>
       </c>
@@ -9845,11 +9854,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" ht="16" thickBot="1">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
     </row>
-    <row r="212" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="17" thickTop="1" thickBot="1">
       <c r="A212" s="8" t="s">
         <v>366</v>
       </c>
@@ -9866,7 +9875,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="16" thickTop="1">
       <c r="A213" s="1">
         <v>1</v>
       </c>
@@ -9880,7 +9889,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13">
       <c r="A214" s="14">
         <v>2</v>
       </c>
@@ -9891,8 +9900,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="216" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="16" thickBot="1"/>
+    <row r="216" spans="1:13" ht="17" thickTop="1" thickBot="1">
       <c r="A216" s="8" t="s">
         <v>367</v>
       </c>
@@ -9900,7 +9909,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="16" thickTop="1">
       <c r="A217" s="1" t="s">
         <v>380</v>
       </c>
@@ -9908,7 +9917,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
         <v>381</v>
       </c>
@@ -9916,7 +9925,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="16" thickBot="1">
       <c r="A220" s="5" t="s">
         <v>130</v>
       </c>
@@ -9937,7 +9946,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="17" thickTop="1" thickBot="1">
       <c r="A221" s="8" t="s">
         <v>368</v>
       </c>
@@ -9978,7 +9987,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="16" thickTop="1">
       <c r="A222" s="1" t="s">
         <v>380</v>
       </c>
@@ -10018,7 +10027,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13">
       <c r="A223" s="1" t="s">
         <v>380</v>
       </c>
@@ -10047,7 +10056,7 @@
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
         <v>380</v>
       </c>
@@ -10081,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
         <v>381</v>
       </c>
@@ -10120,7 +10129,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
         <v>381</v>
       </c>
@@ -10151,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
         <v>381</v>
       </c>
@@ -10179,7 +10188,7 @@
       </c>
       <c r="I227" s="3"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13">
       <c r="A228" s="18" t="s">
         <v>359</v>
       </c>
@@ -10386,7 +10395,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -10397,6 +10406,9 @@
           <xm:sqref>E84 B162 E86:E87 D23:D41 D43:D44 E131:E136</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -10410,22 +10422,22 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -10448,7 +10460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -10468,7 +10480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -10488,7 +10500,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -10511,7 +10523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -10525,7 +10537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -10545,7 +10557,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -10559,7 +10571,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -10579,26 +10591,26 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="16" thickBot="1"/>
+    <row r="27" spans="1:7" ht="17" thickTop="1" thickBot="1">
       <c r="A27" s="8" t="s">
         <v>151</v>
       </c>
@@ -10619,7 +10631,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16" thickTop="1">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
@@ -10632,7 +10644,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
         <v>75</v>
       </c>
@@ -10649,7 +10661,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
         <v>59</v>
       </c>
@@ -10666,7 +10678,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
@@ -10683,7 +10695,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
         <v>78</v>
       </c>
@@ -10700,7 +10712,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="409">
       <c r="A33" s="6" t="s">
         <v>139</v>
       </c>
@@ -10717,7 +10729,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
@@ -10734,7 +10746,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>79</v>
       </c>
@@ -10751,7 +10763,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
@@ -10768,7 +10780,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -10785,7 +10797,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -10802,7 +10814,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
         <v>29</v>
       </c>
@@ -10819,7 +10831,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>83</v>
       </c>
@@ -10860,9 +10872,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="str">
         <f>Sheet1!A74</f>
         <v>CTidlData</v>
@@ -10871,18 +10883,18 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="str">
         <f>Sheet1!A75</f>
         <v>CTidlItaly</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="str">
         <f>Sheet1!A80</f>
         <v>ETidlDid</v>
@@ -10891,13 +10903,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="str">
         <f>Sheet1!A81</f>
         <v>ETidlSignal</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="str">
         <f>Sheet1!A142</f>
         <v>uint64_t</v>
@@ -10906,67 +10918,67 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" t="str">
         <f>Sheet1!A143</f>
         <v>int64_t</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="str">
         <f>Sheet1!A144</f>
         <v>uint32_t</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="str">
         <f>Sheet1!A145</f>
         <v>int32_t</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" t="str">
         <f>Sheet1!A146</f>
         <v>uint8_t*</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" t="str">
         <f>Sheet1!A147</f>
         <v>uint16_t</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" t="str">
         <f>Sheet1!A148</f>
         <v>int16_t</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" t="str">
         <f>Sheet1!A149</f>
         <v>uint8_t</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" t="str">
         <f>Sheet1!A150</f>
         <v>int8_t</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" t="str">
         <f>Sheet1!A151</f>
         <v>float</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39" t="str">
         <f>Sheet1!A152</f>
         <v>double</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" t="str">
         <f>Sheet1!A153</f>
         <v>etc</v>
@@ -10975,7 +10987,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
